--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.020555" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.588999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.021511" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.918338" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.912559" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.020555" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.588999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.021511" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.918338" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.912559" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.327373" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.020555" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.232439" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.588999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.021511" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.918338" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.912559" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.588999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.021511" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.918338" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.020555" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.912559" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
